--- a/continew-server/src/main/resources/templates/import/user.xlsx
+++ b/continew-server/src/main/resources/templates/import/user.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>13736</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>多个部门请用英文冒号
+;分割</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
@@ -110,6 +133,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>角色</t>
     </r>
     <r>
@@ -159,7 +188,33 @@
     <t>password1</t>
   </si>
   <si>
-    <t>Xxx科技有限公司</t>
+    <r>
+      <t>Xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>科技有限公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:Xxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（天津）科技有限公司</t>
+    </r>
   </si>
   <si>
     <t>测试人员</t>
@@ -184,7 +239,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -362,6 +417,11 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1399,17 +1459,18 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="4" width="21" customWidth="1"/>
+    <col min="1" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="40.25" customWidth="1"/>
     <col min="5" max="5" width="30.5" customWidth="1"/>
     <col min="6" max="16384" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:9">
+    <row r="1" ht="34" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1470,5 +1531,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/continew-server/src/main/resources/templates/import/user.xlsx
+++ b/continew-server/src/main/resources/templates/import/user.xlsx
@@ -40,8 +40,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>多个部门请用英文冒号
-;分割</t>
+          <t>多个部门请用左斜杠/分割</t>
         </r>
       </text>
     </comment>
@@ -205,7 +204,7 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>:Xxx</t>
+      <t>/Xxx</t>
     </r>
     <r>
       <rPr>
@@ -1459,7 +1458,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="13.5" outlineLevelRow="1"/>
